--- a/Assets/Documents/文档.xlsx
+++ b/Assets/Documents/文档.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="486"/>
   </bookViews>
   <sheets>
     <sheet name="大厅" sheetId="2" r:id="rId1"/>
     <sheet name="协议列表" sheetId="4" r:id="rId2"/>
+    <sheet name="后台" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="145">
   <si>
     <t>玩家昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +447,36 @@
   </si>
   <si>
     <t>设置：背景声音，按钮开关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.后台登录账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.玩家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.poo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.玩家金币明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>最新活动</t>
+  </si>
+  <si>
+    <t>排行榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,16 +500,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -607,13 +660,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,9 +723,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:Q38"/>
+  <dimension ref="C2:Q40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1329,7 +1403,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:17" ht="14.25">
       <c r="C23" s="4"/>
       <c r="D23" s="12" t="s">
         <v>8</v>
@@ -1342,6 +1416,12 @@
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1443,6 +1523,11 @@
     <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2854,4 +2939,45 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>